--- a/Symphony/2021/June/All Details/08.06.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/June/All Details/08.06.2021/MC Bank Statement June-2021.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="253">
   <si>
     <t>Date</t>
   </si>
@@ -9313,6 +9313,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9326,12 +9332,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9345,8 +9345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView topLeftCell="A115" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10453,14 +10453,14 @@
         <v>287180</v>
       </c>
       <c r="C11" s="94">
-        <v>358780</v>
+        <v>368780</v>
       </c>
       <c r="D11" s="94">
         <v>1220</v>
       </c>
       <c r="E11" s="94">
         <f t="shared" si="0"/>
-        <v>360000</v>
+        <v>370000</v>
       </c>
       <c r="F11" s="259"/>
       <c r="G11" s="221"/>
@@ -12707,7 +12707,7 @@
       </c>
       <c r="C33" s="277">
         <f>SUM(C5:C32)</f>
-        <v>2943842</v>
+        <v>2953842</v>
       </c>
       <c r="D33" s="277">
         <f>SUM(D5:D32)</f>
@@ -12715,11 +12715,11 @@
       </c>
       <c r="E33" s="277">
         <f>SUM(E5:E32)</f>
-        <v>2958037</v>
+        <v>2968037</v>
       </c>
       <c r="F33" s="278">
         <f>B33-E33</f>
-        <v>14118</v>
+        <v>4118</v>
       </c>
       <c r="G33" s="212"/>
       <c r="H33" s="212"/>
@@ -21297,21 +21297,11 @@
       <c r="CS108" s="211"/>
     </row>
     <row r="109" spans="1:97">
-      <c r="A109" s="323" t="s">
-        <v>194</v>
-      </c>
-      <c r="B109" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="C109" s="173">
-        <v>1739992171</v>
-      </c>
-      <c r="D109" s="305">
-        <v>17500</v>
-      </c>
-      <c r="E109" s="255" t="s">
-        <v>80</v>
-      </c>
+      <c r="A109" s="323"/>
+      <c r="B109" s="103"/>
+      <c r="C109" s="173"/>
+      <c r="D109" s="305"/>
+      <c r="E109" s="255"/>
       <c r="F109" s="211"/>
       <c r="G109" s="211"/>
       <c r="H109" s="250"/>
@@ -21413,16 +21403,16 @@
         <v>194</v>
       </c>
       <c r="B110" s="103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C110" s="173">
-        <v>1758900692</v>
+        <v>1739992171</v>
       </c>
       <c r="D110" s="305">
-        <v>30000</v>
+        <v>17500</v>
       </c>
       <c r="E110" s="255" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F110" s="211"/>
       <c r="G110" s="211"/>
@@ -21522,19 +21512,19 @@
     </row>
     <row r="111" spans="1:97">
       <c r="A111" s="323" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B111" s="103" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="C111" s="173">
-        <v>1740649578</v>
+        <v>1758900692</v>
       </c>
       <c r="D111" s="327">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="E111" s="255" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F111" s="211"/>
       <c r="G111" s="211"/>
@@ -21637,16 +21627,16 @@
         <v>193</v>
       </c>
       <c r="B112" s="100" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C112" s="325">
-        <v>1711442828</v>
+        <v>1740649578</v>
       </c>
       <c r="D112" s="327">
-        <v>1210</v>
+        <v>1000</v>
       </c>
       <c r="E112" s="255" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="F112" s="211"/>
       <c r="G112" s="211"/>
@@ -21749,16 +21739,16 @@
         <v>193</v>
       </c>
       <c r="B113" s="103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C113" s="173">
-        <v>1717395317</v>
+        <v>1711442828</v>
       </c>
       <c r="D113" s="327">
-        <v>2340</v>
+        <v>1210</v>
       </c>
       <c r="E113" s="255" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F113" s="211"/>
       <c r="G113" s="211"/>
@@ -21861,16 +21851,16 @@
         <v>193</v>
       </c>
       <c r="B114" s="103" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C114" s="173">
-        <v>1713632915</v>
+        <v>1717395317</v>
       </c>
       <c r="D114" s="305">
-        <v>4300</v>
+        <v>2340</v>
       </c>
       <c r="E114" s="255" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F114" s="211"/>
       <c r="G114" s="211"/>
@@ -21970,19 +21960,19 @@
     </row>
     <row r="115" spans="1:97">
       <c r="A115" s="323" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B115" s="103" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C115" s="173">
-        <v>1760853402</v>
+        <v>1713632915</v>
       </c>
       <c r="D115" s="305">
-        <v>50000</v>
+        <v>4300</v>
       </c>
       <c r="E115" s="255" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="F115" s="211"/>
       <c r="G115" s="211"/>
@@ -22082,19 +22072,19 @@
     </row>
     <row r="116" spans="1:97">
       <c r="A116" s="323" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B116" s="103" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="C116" s="173">
-        <v>1726026676</v>
+        <v>1760853402</v>
       </c>
       <c r="D116" s="305">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="E116" s="255" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="F116" s="211"/>
       <c r="G116" s="211"/>
@@ -22424,7 +22414,7 @@
       <c r="C119" s="384"/>
       <c r="D119" s="309">
         <f>SUM(D37:D118)</f>
-        <v>2237039</v>
+        <v>2227039</v>
       </c>
       <c r="E119" s="299"/>
       <c r="F119" s="211"/>
@@ -22631,7 +22621,7 @@
       <c r="C121" s="372"/>
       <c r="D121" s="309">
         <f>D119+M121</f>
-        <v>2237039</v>
+        <v>2227039</v>
       </c>
       <c r="E121" s="299"/>
       <c r="F121" s="211"/>
@@ -32840,7 +32830,7 @@
         <v>97</v>
       </c>
       <c r="E7" s="166">
-        <v>357948</v>
+        <v>367948</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="53"/>
@@ -32914,7 +32904,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="68">
-        <v>2237039</v>
+        <v>2227039</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="53"/>
